--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Coding Projects\sart-tp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6248B71-7803-4540-BE72-C39DDD7F8EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6757D1F4-C869-4316-B2F4-ACD557260546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="0" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="7">
   <si>
     <t>trialType</t>
   </si>
@@ -363,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,6 +408,7 @@
         <v>5</v>
       </c>
       <c r="B2">
+        <f ca="1">RANDBETWEEN(0, 9)</f>
         <v>0</v>
       </c>
       <c r="C2">
@@ -414,7 +426,8 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0, 9)</f>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2500</v>
@@ -431,7 +444,8 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>5000</v>
@@ -448,6 +462,7 @@
         <v>5</v>
       </c>
       <c r="B5">
+        <f t="shared" ca="1" si="0"/>
         <v>4</v>
       </c>
       <c r="C5">
@@ -465,7 +480,8 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>10000</v>
@@ -474,6 +490,1194 @@
         <v>500</v>
       </c>
       <c r="E6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>12500</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>15000</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="E8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>17500</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>20000</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>22500</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>25000</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>27500</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>30000</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>32500</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>35000</v>
+      </c>
+      <c r="D16">
+        <v>500</v>
+      </c>
+      <c r="E16">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>37500</v>
+      </c>
+      <c r="D17">
+        <v>500</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>40000</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>42500</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+      <c r="E19">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>45000</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>47500</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>50000</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+      <c r="E22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>52500</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>55000</v>
+      </c>
+      <c r="D24">
+        <v>500</v>
+      </c>
+      <c r="E24">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>57500</v>
+      </c>
+      <c r="D25">
+        <v>500</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>60000</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="E26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>62500</v>
+      </c>
+      <c r="D27">
+        <v>500</v>
+      </c>
+      <c r="E27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>65000</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>67500</v>
+      </c>
+      <c r="D29">
+        <v>500</v>
+      </c>
+      <c r="E29">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>70000</v>
+      </c>
+      <c r="D30">
+        <v>500</v>
+      </c>
+      <c r="E30">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>72500</v>
+      </c>
+      <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>75000</v>
+      </c>
+      <c r="D32">
+        <v>500</v>
+      </c>
+      <c r="E32">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>77500</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>80000</v>
+      </c>
+      <c r="D34">
+        <v>500</v>
+      </c>
+      <c r="E34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>82500</v>
+      </c>
+      <c r="D35">
+        <v>500</v>
+      </c>
+      <c r="E35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>85000</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+      <c r="E36">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>87500</v>
+      </c>
+      <c r="D37">
+        <v>500</v>
+      </c>
+      <c r="E37">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>90000</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>92500</v>
+      </c>
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>95000</v>
+      </c>
+      <c r="D40">
+        <v>500</v>
+      </c>
+      <c r="E40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>97500</v>
+      </c>
+      <c r="D41">
+        <v>500</v>
+      </c>
+      <c r="E41">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>100000</v>
+      </c>
+      <c r="D42">
+        <v>500</v>
+      </c>
+      <c r="E42">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>102500</v>
+      </c>
+      <c r="D43">
+        <v>500</v>
+      </c>
+      <c r="E43">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>105000</v>
+      </c>
+      <c r="D44">
+        <v>500</v>
+      </c>
+      <c r="E44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>107500</v>
+      </c>
+      <c r="D45">
+        <v>500</v>
+      </c>
+      <c r="E45">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>110000</v>
+      </c>
+      <c r="D46">
+        <v>500</v>
+      </c>
+      <c r="E46">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>112500</v>
+      </c>
+      <c r="D47">
+        <v>500</v>
+      </c>
+      <c r="E47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>115000</v>
+      </c>
+      <c r="D48">
+        <v>500</v>
+      </c>
+      <c r="E48">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C49">
+        <v>117500</v>
+      </c>
+      <c r="D49">
+        <v>500</v>
+      </c>
+      <c r="E49">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>120000</v>
+      </c>
+      <c r="D50">
+        <v>500</v>
+      </c>
+      <c r="E50">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>122500</v>
+      </c>
+      <c r="D51">
+        <v>500</v>
+      </c>
+      <c r="E51">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>125000</v>
+      </c>
+      <c r="D52">
+        <v>500</v>
+      </c>
+      <c r="E52">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>127500</v>
+      </c>
+      <c r="D53">
+        <v>500</v>
+      </c>
+      <c r="E53">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>130000</v>
+      </c>
+      <c r="D54">
+        <v>500</v>
+      </c>
+      <c r="E54">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>132500</v>
+      </c>
+      <c r="D55">
+        <v>500</v>
+      </c>
+      <c r="E55">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <v>135000</v>
+      </c>
+      <c r="D56">
+        <v>500</v>
+      </c>
+      <c r="E56">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>137500</v>
+      </c>
+      <c r="D57">
+        <v>500</v>
+      </c>
+      <c r="E57">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>140000</v>
+      </c>
+      <c r="D58">
+        <v>500</v>
+      </c>
+      <c r="E58">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>142500</v>
+      </c>
+      <c r="D59">
+        <v>500</v>
+      </c>
+      <c r="E59">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>145000</v>
+      </c>
+      <c r="D60">
+        <v>500</v>
+      </c>
+      <c r="E60">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>147500</v>
+      </c>
+      <c r="D61">
+        <v>500</v>
+      </c>
+      <c r="E61">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C62">
+        <v>150000</v>
+      </c>
+      <c r="D62">
+        <v>500</v>
+      </c>
+      <c r="E62">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>152500</v>
+      </c>
+      <c r="D63">
+        <v>500</v>
+      </c>
+      <c r="E63">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>155000</v>
+      </c>
+      <c r="D64">
+        <v>500</v>
+      </c>
+      <c r="E64">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>157500</v>
+      </c>
+      <c r="D65">
+        <v>500</v>
+      </c>
+      <c r="E65">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>160000</v>
+      </c>
+      <c r="D66">
+        <v>500</v>
+      </c>
+      <c r="E66">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B72" ca="1" si="1">RANDBETWEEN(0, 9)</f>
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>162500</v>
+      </c>
+      <c r="D67">
+        <v>500</v>
+      </c>
+      <c r="E67">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>165000</v>
+      </c>
+      <c r="D68">
+        <v>500</v>
+      </c>
+      <c r="E68">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>167500</v>
+      </c>
+      <c r="D69">
+        <v>500</v>
+      </c>
+      <c r="E69">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>170000</v>
+      </c>
+      <c r="D70">
+        <v>500</v>
+      </c>
+      <c r="E70">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>172500</v>
+      </c>
+      <c r="D71">
+        <v>500</v>
+      </c>
+      <c r="E71">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C72">
+        <v>175000</v>
+      </c>
+      <c r="D72">
+        <v>500</v>
+      </c>
+      <c r="E72">
         <v>2000</v>
       </c>
     </row>
